--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Unstructured EPR document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:medication-card:2023</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Card document</t>
   </si>
   <si>
     <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
@@ -280,10 +286,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -471,7 +477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,6 +533,18 @@
       </c>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
